--- a/rnaSample/rnaSample_J.PLAGGENBERG_12.19.19.xlsx
+++ b/rnaSample/rnaSample_J.PLAGGENBERG_12.19.19.xlsx
@@ -28,7 +28,7 @@
     <t xml:space="preserve">harvester</t>
   </si>
   <si>
-    <t xml:space="preserve">biosampleNumber</t>
+    <t xml:space="preserve">bioSampleNumber</t>
   </si>
   <si>
     <t xml:space="preserve">rnaDate</t>
@@ -84,7 +84,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -113,6 +113,12 @@
       <name val="Arial"/>
       <family val="0"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -170,7 +176,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -184,6 +190,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -191,7 +201,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -218,8 +228,8 @@
   </sheetPr>
   <dimension ref="A1:Z1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="G1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="N5" activeCellId="0" sqref="N5"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -227,14 +237,14 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="14.43"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
@@ -280,37 +290,40 @@
       <c r="Z1" s="1"/>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" s="3" t="n">
+      <c r="A2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="4" t="n">
         <v>1</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H2" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="I2" s="4" t="b">
+      <c r="H2" s="5" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="I2" s="5" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="K2" s="5" t="b">
+      <c r="K2" s="6" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="L2" s="1" t="s">
@@ -338,7 +351,7 @@
       <c r="B3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="6" t="n">
+      <c r="C3" s="7" t="n">
         <v>2</v>
       </c>
       <c r="D3" s="1" t="s">
@@ -347,22 +360,25 @@
       <c r="E3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="6" t="n">
+      <c r="F3" s="7" t="n">
         <v>2</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H3" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="I3" s="4" t="b">
+      <c r="H3" s="5" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="I3" s="5" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="K3" s="5" t="b">
+      <c r="K3" s="6" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="L3" s="1" t="s">
@@ -376,7 +392,7 @@
       <c r="B4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="6" t="n">
+      <c r="C4" s="7" t="n">
         <v>3</v>
       </c>
       <c r="D4" s="1" t="s">
@@ -385,22 +401,25 @@
       <c r="E4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="6" t="n">
+      <c r="F4" s="7" t="n">
         <v>3</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H4" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="I4" s="4" t="b">
+      <c r="H4" s="5" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="I4" s="5" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="K4" s="5" t="b">
+      <c r="K4" s="6" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="L4" s="1" t="s">
@@ -414,7 +433,7 @@
       <c r="B5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="3" t="n">
+      <c r="C5" s="4" t="n">
         <v>4</v>
       </c>
       <c r="D5" s="1" t="s">
@@ -423,22 +442,25 @@
       <c r="E5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F5" s="3" t="n">
+      <c r="F5" s="4" t="n">
         <v>4</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H5" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="I5" s="4" t="b">
+      <c r="H5" s="5" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="I5" s="5" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="K5" s="5" t="b">
+      <c r="K5" s="6" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="L5" s="1" t="s">
@@ -452,7 +474,7 @@
       <c r="B6" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="6" t="n">
+      <c r="C6" s="7" t="n">
         <v>5</v>
       </c>
       <c r="D6" s="1" t="s">
@@ -461,22 +483,25 @@
       <c r="E6" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F6" s="6" t="n">
+      <c r="F6" s="7" t="n">
         <v>5</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H6" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="I6" s="4" t="b">
+      <c r="H6" s="5" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="I6" s="5" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="K6" s="5" t="b">
+      <c r="K6" s="6" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="L6" s="1" t="s">
@@ -490,7 +515,7 @@
       <c r="B7" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="6" t="n">
+      <c r="C7" s="7" t="n">
         <v>6</v>
       </c>
       <c r="D7" s="1" t="s">
@@ -499,22 +524,25 @@
       <c r="E7" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F7" s="6" t="n">
+      <c r="F7" s="7" t="n">
         <v>6</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H7" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="I7" s="4" t="b">
+      <c r="H7" s="5" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="I7" s="5" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="K7" s="5" t="b">
+      <c r="K7" s="6" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="L7" s="1" t="s">
@@ -528,7 +556,7 @@
       <c r="B8" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="3" t="n">
+      <c r="C8" s="4" t="n">
         <v>7</v>
       </c>
       <c r="D8" s="1" t="s">
@@ -537,22 +565,25 @@
       <c r="E8" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F8" s="3" t="n">
+      <c r="F8" s="4" t="n">
         <v>7</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H8" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="I8" s="4" t="b">
+      <c r="H8" s="5" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="I8" s="5" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="J8" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="K8" s="5" t="b">
+      <c r="K8" s="6" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="L8" s="1" t="s">
@@ -566,7 +597,7 @@
       <c r="B9" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="6" t="n">
+      <c r="C9" s="7" t="n">
         <v>8</v>
       </c>
       <c r="D9" s="1" t="s">
@@ -575,22 +606,25 @@
       <c r="E9" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F9" s="6" t="n">
+      <c r="F9" s="7" t="n">
         <v>8</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H9" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="I9" s="4" t="b">
+      <c r="H9" s="5" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="I9" s="5" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="K9" s="5" t="b">
+      <c r="K9" s="6" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="L9" s="1" t="s">
@@ -604,7 +638,7 @@
       <c r="B10" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="6" t="n">
+      <c r="C10" s="7" t="n">
         <v>9</v>
       </c>
       <c r="D10" s="1" t="s">
@@ -613,22 +647,25 @@
       <c r="E10" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F10" s="6" t="n">
+      <c r="F10" s="7" t="n">
         <v>9</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H10" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="I10" s="4" t="b">
+      <c r="H10" s="5" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="I10" s="5" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="J10" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="K10" s="5" t="b">
+      <c r="K10" s="6" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="L10" s="1" t="s">
@@ -642,7 +679,7 @@
       <c r="B11" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="3" t="n">
+      <c r="C11" s="4" t="n">
         <v>10</v>
       </c>
       <c r="D11" s="1" t="s">
@@ -651,22 +688,25 @@
       <c r="E11" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F11" s="3" t="n">
+      <c r="F11" s="4" t="n">
         <v>10</v>
       </c>
       <c r="G11" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H11" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="I11" s="4" t="b">
+      <c r="H11" s="5" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="I11" s="5" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="J11" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="K11" s="5" t="b">
+      <c r="K11" s="6" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="L11" s="1" t="s">
@@ -680,7 +720,7 @@
       <c r="B12" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="6" t="n">
+      <c r="C12" s="7" t="n">
         <v>11</v>
       </c>
       <c r="D12" s="1" t="s">
@@ -689,22 +729,25 @@
       <c r="E12" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F12" s="6" t="n">
+      <c r="F12" s="7" t="n">
         <v>11</v>
       </c>
       <c r="G12" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H12" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="I12" s="4" t="b">
+      <c r="H12" s="5" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="I12" s="5" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="J12" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="K12" s="5" t="b">
+      <c r="K12" s="6" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="L12" s="1" t="s">
@@ -718,7 +761,7 @@
       <c r="B13" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="6" t="n">
+      <c r="C13" s="7" t="n">
         <v>12</v>
       </c>
       <c r="D13" s="1" t="s">
@@ -727,22 +770,25 @@
       <c r="E13" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F13" s="6" t="n">
+      <c r="F13" s="7" t="n">
         <v>12</v>
       </c>
       <c r="G13" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H13" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="I13" s="4" t="b">
+      <c r="H13" s="5" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="I13" s="5" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="J13" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="K13" s="5" t="b">
+      <c r="K13" s="6" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="L13" s="1" t="s">
@@ -756,7 +802,7 @@
       <c r="B14" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C14" s="3" t="n">
+      <c r="C14" s="4" t="n">
         <v>13</v>
       </c>
       <c r="D14" s="1" t="s">
@@ -765,22 +811,25 @@
       <c r="E14" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F14" s="3" t="n">
+      <c r="F14" s="4" t="n">
         <v>13</v>
       </c>
       <c r="G14" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H14" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="I14" s="4" t="b">
+      <c r="H14" s="5" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="I14" s="5" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="J14" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="K14" s="5" t="b">
+      <c r="K14" s="6" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="L14" s="1" t="s">
@@ -794,7 +843,7 @@
       <c r="B15" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C15" s="6" t="n">
+      <c r="C15" s="7" t="n">
         <v>14</v>
       </c>
       <c r="D15" s="1" t="s">
@@ -803,22 +852,25 @@
       <c r="E15" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F15" s="6" t="n">
+      <c r="F15" s="7" t="n">
         <v>14</v>
       </c>
       <c r="G15" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H15" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="I15" s="4" t="b">
+      <c r="H15" s="5" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="I15" s="5" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="J15" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="K15" s="5" t="b">
+      <c r="K15" s="6" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="L15" s="1" t="s">
@@ -832,7 +884,7 @@
       <c r="B16" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C16" s="6" t="n">
+      <c r="C16" s="7" t="n">
         <v>15</v>
       </c>
       <c r="D16" s="1" t="s">
@@ -841,22 +893,25 @@
       <c r="E16" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F16" s="6" t="n">
+      <c r="F16" s="7" t="n">
         <v>15</v>
       </c>
       <c r="G16" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H16" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="I16" s="4" t="b">
+      <c r="H16" s="5" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="I16" s="5" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="J16" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="K16" s="5" t="b">
+      <c r="K16" s="6" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="L16" s="1" t="s">
@@ -870,7 +925,7 @@
       <c r="B17" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C17" s="3" t="n">
+      <c r="C17" s="4" t="n">
         <v>16</v>
       </c>
       <c r="D17" s="1" t="s">
@@ -879,22 +934,25 @@
       <c r="E17" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F17" s="3" t="n">
+      <c r="F17" s="4" t="n">
         <v>16</v>
       </c>
       <c r="G17" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H17" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="I17" s="4" t="b">
+      <c r="H17" s="5" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="I17" s="5" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="J17" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="K17" s="5" t="b">
+      <c r="K17" s="6" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="L17" s="1" t="s">
@@ -908,7 +966,7 @@
       <c r="B18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C18" s="6" t="n">
+      <c r="C18" s="7" t="n">
         <v>17</v>
       </c>
       <c r="D18" s="1" t="s">
@@ -917,22 +975,25 @@
       <c r="E18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F18" s="6" t="n">
+      <c r="F18" s="7" t="n">
         <v>17</v>
       </c>
       <c r="G18" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H18" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="I18" s="4" t="b">
+      <c r="H18" s="5" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="I18" s="5" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="J18" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="K18" s="5" t="b">
+      <c r="K18" s="6" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="L18" s="1" t="s">
@@ -946,7 +1007,7 @@
       <c r="B19" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C19" s="6" t="n">
+      <c r="C19" s="7" t="n">
         <v>18</v>
       </c>
       <c r="D19" s="1" t="s">
@@ -955,22 +1016,25 @@
       <c r="E19" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F19" s="6" t="n">
+      <c r="F19" s="7" t="n">
         <v>18</v>
       </c>
       <c r="G19" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H19" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="I19" s="4" t="b">
+      <c r="H19" s="5" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="I19" s="5" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="J19" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="K19" s="5" t="b">
+      <c r="K19" s="6" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="L19" s="1" t="s">
@@ -984,7 +1048,7 @@
       <c r="B20" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C20" s="3" t="n">
+      <c r="C20" s="4" t="n">
         <v>19</v>
       </c>
       <c r="D20" s="1" t="s">
@@ -993,22 +1057,25 @@
       <c r="E20" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F20" s="3" t="n">
+      <c r="F20" s="4" t="n">
         <v>19</v>
       </c>
       <c r="G20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H20" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="I20" s="4" t="b">
+      <c r="H20" s="5" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="I20" s="5" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="J20" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="K20" s="5" t="b">
+      <c r="K20" s="6" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="L20" s="1" t="s">
@@ -1022,7 +1089,7 @@
       <c r="B21" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C21" s="6" t="n">
+      <c r="C21" s="7" t="n">
         <v>20</v>
       </c>
       <c r="D21" s="1" t="s">
@@ -1031,22 +1098,25 @@
       <c r="E21" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F21" s="6" t="n">
+      <c r="F21" s="7" t="n">
         <v>20</v>
       </c>
       <c r="G21" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H21" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="I21" s="4" t="b">
+      <c r="H21" s="5" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="I21" s="5" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="J21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="K21" s="5" t="b">
+      <c r="K21" s="6" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="L21" s="1" t="s">
@@ -1060,7 +1130,7 @@
       <c r="B22" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C22" s="6" t="n">
+      <c r="C22" s="7" t="n">
         <v>21</v>
       </c>
       <c r="D22" s="1" t="s">
@@ -1069,22 +1139,25 @@
       <c r="E22" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F22" s="6" t="n">
+      <c r="F22" s="7" t="n">
         <v>21</v>
       </c>
       <c r="G22" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H22" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="I22" s="4" t="b">
+      <c r="H22" s="5" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="I22" s="5" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="J22" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="K22" s="5" t="b">
+      <c r="K22" s="6" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="L22" s="1" t="s">
@@ -1098,7 +1171,7 @@
       <c r="B23" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C23" s="3" t="n">
+      <c r="C23" s="4" t="n">
         <v>22</v>
       </c>
       <c r="D23" s="1" t="s">
@@ -1107,22 +1180,25 @@
       <c r="E23" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F23" s="3" t="n">
+      <c r="F23" s="4" t="n">
         <v>22</v>
       </c>
       <c r="G23" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H23" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="I23" s="4" t="b">
+      <c r="H23" s="5" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="I23" s="5" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="J23" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="K23" s="5" t="b">
+      <c r="K23" s="6" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="L23" s="1" t="s">
@@ -1136,7 +1212,7 @@
       <c r="B24" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C24" s="6" t="n">
+      <c r="C24" s="7" t="n">
         <v>23</v>
       </c>
       <c r="D24" s="1" t="s">
@@ -1145,22 +1221,25 @@
       <c r="E24" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F24" s="6" t="n">
+      <c r="F24" s="7" t="n">
         <v>23</v>
       </c>
       <c r="G24" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H24" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="I24" s="4" t="b">
+      <c r="H24" s="5" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="I24" s="5" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="J24" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="K24" s="5" t="b">
+      <c r="K24" s="6" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="L24" s="1" t="s">
@@ -1174,7 +1253,7 @@
       <c r="B25" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C25" s="6" t="n">
+      <c r="C25" s="7" t="n">
         <v>24</v>
       </c>
       <c r="D25" s="1" t="s">
@@ -1183,22 +1262,25 @@
       <c r="E25" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F25" s="6" t="n">
+      <c r="F25" s="7" t="n">
         <v>24</v>
       </c>
       <c r="G25" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H25" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="I25" s="4" t="b">
+      <c r="H25" s="5" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="I25" s="5" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="J25" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="K25" s="5" t="b">
+      <c r="K25" s="6" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="L25" s="1" t="s">
@@ -1212,7 +1294,7 @@
       <c r="B26" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C26" s="3" t="n">
+      <c r="C26" s="4" t="n">
         <v>25</v>
       </c>
       <c r="D26" s="1" t="s">
@@ -1221,22 +1303,25 @@
       <c r="E26" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F26" s="3" t="n">
+      <c r="F26" s="4" t="n">
         <v>25</v>
       </c>
       <c r="G26" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H26" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="I26" s="4" t="b">
+      <c r="H26" s="5" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="I26" s="5" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="J26" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="K26" s="5" t="b">
+      <c r="K26" s="6" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="L26" s="1" t="s">
@@ -1250,7 +1335,7 @@
       <c r="B27" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C27" s="6" t="n">
+      <c r="C27" s="7" t="n">
         <v>26</v>
       </c>
       <c r="D27" s="1" t="s">
@@ -1259,22 +1344,25 @@
       <c r="E27" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F27" s="6" t="n">
+      <c r="F27" s="7" t="n">
         <v>26</v>
       </c>
       <c r="G27" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H27" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="I27" s="4" t="b">
+      <c r="H27" s="5" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="I27" s="5" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="J27" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="K27" s="5" t="b">
+      <c r="K27" s="6" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="L27" s="1" t="s">
@@ -1288,7 +1376,7 @@
       <c r="B28" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C28" s="6" t="n">
+      <c r="C28" s="7" t="n">
         <v>27</v>
       </c>
       <c r="D28" s="1" t="s">
@@ -1297,22 +1385,25 @@
       <c r="E28" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F28" s="6" t="n">
+      <c r="F28" s="7" t="n">
         <v>27</v>
       </c>
       <c r="G28" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H28" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="I28" s="4" t="b">
+      <c r="H28" s="5" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="I28" s="5" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="J28" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="K28" s="5" t="b">
+      <c r="K28" s="6" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="L28" s="1" t="s">
@@ -1326,7 +1417,7 @@
       <c r="B29" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C29" s="3" t="n">
+      <c r="C29" s="4" t="n">
         <v>28</v>
       </c>
       <c r="D29" s="1" t="s">
@@ -1335,22 +1426,25 @@
       <c r="E29" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F29" s="3" t="n">
+      <c r="F29" s="4" t="n">
         <v>28</v>
       </c>
       <c r="G29" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H29" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="I29" s="4" t="b">
+      <c r="H29" s="5" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="I29" s="5" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="J29" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="K29" s="5" t="b">
+      <c r="K29" s="6" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="L29" s="1" t="s">

--- a/rnaSample/rnaSample_J.PLAGGENBERG_12.19.19.xlsx
+++ b/rnaSample/rnaSample_J.PLAGGENBERG_12.19.19.xlsx
@@ -119,6 +119,7 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="11"/>
@@ -176,7 +177,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -195,6 +196,10 @@
     </xf>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
@@ -229,10 +234,10 @@
   <dimension ref="A1:Z1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
+      <selection pane="topLeft" activeCell="H2" activeCellId="0" sqref="H2:H29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="14.43"/>
   </cols>
@@ -311,18 +316,17 @@
       <c r="G2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H2" s="5" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="I2" s="5" t="n">
+      <c r="H2" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="I2" s="6" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="K2" s="6" t="n">
+      <c r="K2" s="7" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -351,7 +355,7 @@
       <c r="B3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="7" t="n">
+      <c r="C3" s="8" t="n">
         <v>2</v>
       </c>
       <c r="D3" s="1" t="s">
@@ -360,24 +364,23 @@
       <c r="E3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="7" t="n">
+      <c r="F3" s="8" t="n">
         <v>2</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H3" s="5" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="I3" s="5" t="n">
+      <c r="H3" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="I3" s="6" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="K3" s="6" t="n">
+      <c r="K3" s="7" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -392,7 +395,7 @@
       <c r="B4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="7" t="n">
+      <c r="C4" s="8" t="n">
         <v>3</v>
       </c>
       <c r="D4" s="1" t="s">
@@ -401,24 +404,23 @@
       <c r="E4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="7" t="n">
+      <c r="F4" s="8" t="n">
         <v>3</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H4" s="5" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="I4" s="5" t="n">
+      <c r="H4" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="I4" s="6" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="K4" s="6" t="n">
+      <c r="K4" s="7" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -448,18 +450,17 @@
       <c r="G5" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H5" s="5" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="I5" s="5" t="n">
+      <c r="H5" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="I5" s="6" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="K5" s="6" t="n">
+      <c r="K5" s="7" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -474,7 +475,7 @@
       <c r="B6" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="7" t="n">
+      <c r="C6" s="8" t="n">
         <v>5</v>
       </c>
       <c r="D6" s="1" t="s">
@@ -483,24 +484,23 @@
       <c r="E6" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F6" s="7" t="n">
+      <c r="F6" s="8" t="n">
         <v>5</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H6" s="5" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="I6" s="5" t="n">
+      <c r="H6" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="I6" s="6" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="K6" s="6" t="n">
+      <c r="K6" s="7" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -515,7 +515,7 @@
       <c r="B7" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="7" t="n">
+      <c r="C7" s="8" t="n">
         <v>6</v>
       </c>
       <c r="D7" s="1" t="s">
@@ -524,24 +524,23 @@
       <c r="E7" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F7" s="7" t="n">
+      <c r="F7" s="8" t="n">
         <v>6</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H7" s="5" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="I7" s="5" t="n">
+      <c r="H7" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="I7" s="6" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="K7" s="6" t="n">
+      <c r="K7" s="7" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -571,18 +570,17 @@
       <c r="G8" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H8" s="5" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="I8" s="5" t="n">
+      <c r="H8" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="I8" s="6" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="J8" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="K8" s="6" t="n">
+      <c r="K8" s="7" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -597,7 +595,7 @@
       <c r="B9" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="7" t="n">
+      <c r="C9" s="8" t="n">
         <v>8</v>
       </c>
       <c r="D9" s="1" t="s">
@@ -606,24 +604,23 @@
       <c r="E9" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F9" s="7" t="n">
+      <c r="F9" s="8" t="n">
         <v>8</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H9" s="5" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="I9" s="5" t="n">
+      <c r="H9" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="I9" s="6" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="K9" s="6" t="n">
+      <c r="K9" s="7" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -638,7 +635,7 @@
       <c r="B10" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="7" t="n">
+      <c r="C10" s="8" t="n">
         <v>9</v>
       </c>
       <c r="D10" s="1" t="s">
@@ -647,24 +644,23 @@
       <c r="E10" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F10" s="7" t="n">
+      <c r="F10" s="8" t="n">
         <v>9</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H10" s="5" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="I10" s="5" t="n">
+      <c r="H10" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="I10" s="6" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="J10" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="K10" s="6" t="n">
+      <c r="K10" s="7" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -694,18 +690,17 @@
       <c r="G11" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H11" s="5" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="I11" s="5" t="n">
+      <c r="H11" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="I11" s="6" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="J11" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="K11" s="6" t="n">
+      <c r="K11" s="7" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -720,7 +715,7 @@
       <c r="B12" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="7" t="n">
+      <c r="C12" s="8" t="n">
         <v>11</v>
       </c>
       <c r="D12" s="1" t="s">
@@ -729,24 +724,23 @@
       <c r="E12" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F12" s="7" t="n">
+      <c r="F12" s="8" t="n">
         <v>11</v>
       </c>
       <c r="G12" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H12" s="5" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="I12" s="5" t="n">
+      <c r="H12" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="I12" s="6" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="J12" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="K12" s="6" t="n">
+      <c r="K12" s="7" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -761,7 +755,7 @@
       <c r="B13" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="7" t="n">
+      <c r="C13" s="8" t="n">
         <v>12</v>
       </c>
       <c r="D13" s="1" t="s">
@@ -770,24 +764,23 @@
       <c r="E13" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F13" s="7" t="n">
+      <c r="F13" s="8" t="n">
         <v>12</v>
       </c>
       <c r="G13" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H13" s="5" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="I13" s="5" t="n">
+      <c r="H13" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="I13" s="6" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="J13" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="K13" s="6" t="n">
+      <c r="K13" s="7" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -817,18 +810,17 @@
       <c r="G14" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H14" s="5" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="I14" s="5" t="n">
+      <c r="H14" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="I14" s="6" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="J14" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="K14" s="6" t="n">
+      <c r="K14" s="7" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -843,7 +835,7 @@
       <c r="B15" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C15" s="7" t="n">
+      <c r="C15" s="8" t="n">
         <v>14</v>
       </c>
       <c r="D15" s="1" t="s">
@@ -852,24 +844,23 @@
       <c r="E15" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F15" s="7" t="n">
+      <c r="F15" s="8" t="n">
         <v>14</v>
       </c>
       <c r="G15" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H15" s="5" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="I15" s="5" t="n">
+      <c r="H15" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="I15" s="6" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="J15" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="K15" s="6" t="n">
+      <c r="K15" s="7" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -884,7 +875,7 @@
       <c r="B16" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C16" s="7" t="n">
+      <c r="C16" s="8" t="n">
         <v>15</v>
       </c>
       <c r="D16" s="1" t="s">
@@ -893,24 +884,23 @@
       <c r="E16" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F16" s="7" t="n">
+      <c r="F16" s="8" t="n">
         <v>15</v>
       </c>
       <c r="G16" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H16" s="5" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="I16" s="5" t="n">
+      <c r="H16" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="I16" s="6" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="J16" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="K16" s="6" t="n">
+      <c r="K16" s="7" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -940,18 +930,17 @@
       <c r="G17" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H17" s="5" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="I17" s="5" t="n">
+      <c r="H17" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="I17" s="6" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="J17" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="K17" s="6" t="n">
+      <c r="K17" s="7" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -966,7 +955,7 @@
       <c r="B18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C18" s="7" t="n">
+      <c r="C18" s="8" t="n">
         <v>17</v>
       </c>
       <c r="D18" s="1" t="s">
@@ -975,24 +964,23 @@
       <c r="E18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F18" s="7" t="n">
+      <c r="F18" s="8" t="n">
         <v>17</v>
       </c>
       <c r="G18" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H18" s="5" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="I18" s="5" t="n">
+      <c r="H18" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="I18" s="6" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="J18" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="K18" s="6" t="n">
+      <c r="K18" s="7" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -1007,7 +995,7 @@
       <c r="B19" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C19" s="7" t="n">
+      <c r="C19" s="8" t="n">
         <v>18</v>
       </c>
       <c r="D19" s="1" t="s">
@@ -1016,24 +1004,23 @@
       <c r="E19" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F19" s="7" t="n">
+      <c r="F19" s="8" t="n">
         <v>18</v>
       </c>
       <c r="G19" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H19" s="5" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="I19" s="5" t="n">
+      <c r="H19" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="I19" s="6" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="J19" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="K19" s="6" t="n">
+      <c r="K19" s="7" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -1063,18 +1050,17 @@
       <c r="G20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H20" s="5" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="I20" s="5" t="n">
+      <c r="H20" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="I20" s="6" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="J20" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="K20" s="6" t="n">
+      <c r="K20" s="7" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -1089,7 +1075,7 @@
       <c r="B21" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C21" s="7" t="n">
+      <c r="C21" s="8" t="n">
         <v>20</v>
       </c>
       <c r="D21" s="1" t="s">
@@ -1098,24 +1084,23 @@
       <c r="E21" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F21" s="7" t="n">
+      <c r="F21" s="8" t="n">
         <v>20</v>
       </c>
       <c r="G21" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H21" s="5" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="I21" s="5" t="n">
+      <c r="H21" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="I21" s="6" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="J21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="K21" s="6" t="n">
+      <c r="K21" s="7" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -1130,7 +1115,7 @@
       <c r="B22" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C22" s="7" t="n">
+      <c r="C22" s="8" t="n">
         <v>21</v>
       </c>
       <c r="D22" s="1" t="s">
@@ -1139,24 +1124,23 @@
       <c r="E22" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F22" s="7" t="n">
+      <c r="F22" s="8" t="n">
         <v>21</v>
       </c>
       <c r="G22" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H22" s="5" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="I22" s="5" t="n">
+      <c r="H22" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="I22" s="6" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="J22" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="K22" s="6" t="n">
+      <c r="K22" s="7" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -1186,18 +1170,17 @@
       <c r="G23" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H23" s="5" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="I23" s="5" t="n">
+      <c r="H23" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="I23" s="6" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="J23" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="K23" s="6" t="n">
+      <c r="K23" s="7" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -1212,7 +1195,7 @@
       <c r="B24" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C24" s="7" t="n">
+      <c r="C24" s="8" t="n">
         <v>23</v>
       </c>
       <c r="D24" s="1" t="s">
@@ -1221,24 +1204,23 @@
       <c r="E24" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F24" s="7" t="n">
+      <c r="F24" s="8" t="n">
         <v>23</v>
       </c>
       <c r="G24" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H24" s="5" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="I24" s="5" t="n">
+      <c r="H24" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="I24" s="6" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="J24" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="K24" s="6" t="n">
+      <c r="K24" s="7" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -1253,7 +1235,7 @@
       <c r="B25" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C25" s="7" t="n">
+      <c r="C25" s="8" t="n">
         <v>24</v>
       </c>
       <c r="D25" s="1" t="s">
@@ -1262,24 +1244,23 @@
       <c r="E25" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F25" s="7" t="n">
+      <c r="F25" s="8" t="n">
         <v>24</v>
       </c>
       <c r="G25" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H25" s="5" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="I25" s="5" t="n">
+      <c r="H25" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="I25" s="6" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="J25" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="K25" s="6" t="n">
+      <c r="K25" s="7" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -1309,18 +1290,17 @@
       <c r="G26" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H26" s="5" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="I26" s="5" t="n">
+      <c r="H26" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="I26" s="6" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="J26" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="K26" s="6" t="n">
+      <c r="K26" s="7" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -1335,7 +1315,7 @@
       <c r="B27" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C27" s="7" t="n">
+      <c r="C27" s="8" t="n">
         <v>26</v>
       </c>
       <c r="D27" s="1" t="s">
@@ -1344,24 +1324,23 @@
       <c r="E27" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F27" s="7" t="n">
+      <c r="F27" s="8" t="n">
         <v>26</v>
       </c>
       <c r="G27" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H27" s="5" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="I27" s="5" t="n">
+      <c r="H27" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="I27" s="6" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="J27" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="K27" s="6" t="n">
+      <c r="K27" s="7" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -1376,7 +1355,7 @@
       <c r="B28" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C28" s="7" t="n">
+      <c r="C28" s="8" t="n">
         <v>27</v>
       </c>
       <c r="D28" s="1" t="s">
@@ -1385,24 +1364,23 @@
       <c r="E28" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F28" s="7" t="n">
+      <c r="F28" s="8" t="n">
         <v>27</v>
       </c>
       <c r="G28" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H28" s="5" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="I28" s="5" t="n">
+      <c r="H28" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="I28" s="6" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="J28" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="K28" s="6" t="n">
+      <c r="K28" s="7" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -1432,18 +1410,17 @@
       <c r="G29" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H29" s="5" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="I29" s="5" t="n">
+      <c r="H29" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="I29" s="6" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="J29" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="K29" s="6" t="n">
+      <c r="K29" s="7" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
